--- a/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
@@ -25,7 +25,7 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>db511cce-1f1f-43dc-942c-f435d64967f1.md</t>
+    <t>edcb413f-a0eb-46c7-9394-4ea8233e38ad.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
@@ -64,10 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>db511cce-1f1f-43dc-942c-f435d64967f1.ffb9ef4ba75c0eb35c66c69dd1a0f782bb69c6cc.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-22 03:11:56</t>
+    <t>edcb413f-a0eb-46c7-9394-4ea8233e38ad.b01d8e6c6e25df7ed987d8299e7397d8d043426c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 03:12:53</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -79,10 +79,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>db511cce-1f1f-43dc-942c-f435d64967f1.ffb9ef4ba75c0eb35c66c69dd1a0f782bb69c6cc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-22 03:12:10</t>
+    <t>edcb413f-a0eb-46c7-9394-4ea8233e38ad.b01d8e6c6e25df7ed987d8299e7397d8d043426c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 03:13:04</t>
   </si>
 </sst>
 </file>
@@ -233,7 +233,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="db511cce-1f1f-43dc-942c-f435d64967f1.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="edcb413f-a0eb-46c7-9394-4ea8233e38ad.md" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
@@ -330,8 +330,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="db511cce-1f1f-43dc-942c-f435d64967f1.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="db511cce-1f1f-43dc-942c-f435d64967f1.ffb9ef4ba75c0eb35c66c69dd1a0f782bb69c6cc.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A2" display="edcb413f-a0eb-46c7-9394-4ea8233e38ad.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="edcb413f-a0eb-46c7-9394-4ea8233e38ad.b01d8e6c6e25df7ed987d8299e7397d8d043426c.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -428,8 +428,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="db511cce-1f1f-43dc-942c-f435d64967f1.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="db511cce-1f1f-43dc-942c-f435d64967f1.ffb9ef4ba75c0eb35c66c69dd1a0f782bb69c6cc.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A2" display="edcb413f-a0eb-46c7-9394-4ea8233e38ad.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="edcb413f-a0eb-46c7-9394-4ea8233e38ad.b01d8e6c6e25df7ed987d8299e7397d8d043426c.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>2977f9ab-c31d-4110-8992-545f29d1a92f.53c6c4480c0b7265d9f38f31f2f47e263f1d2e4f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:19:02</t>
+    <t>2016-02-22 03:19:57</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>2977f9ab-c31d-4110-8992-545f29d1a92f.53c6c4480c0b7265d9f38f31f2f47e263f1d2e4f.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:19:17</t>
+    <t>2016-02-22 03:20:24</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>b2b6df03-c520-49b2-90a1-848d14002757.md</t>
@@ -73,15 +73,18 @@
     <t>2016-02-22 03:23:06</t>
   </si>
   <si>
+    <t>2016-02-22 03:23:58</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-02-22 03:23:20</t>
+  </si>
+  <si>
+    <t>2016-02-22 03:24:20</t>
   </si>
   <si>
     <t>b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId2"/>
     <hyperlink ref="C2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId2"/>
     <hyperlink ref="C2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>File Name</t>
   </si>
@@ -25,13 +25,16 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>b2b6df03-c520-49b2-90a1-848d14002757.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>b2b6df03-c520-49b2-90a1-848d14002757.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -67,19 +70,22 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 03:23:06</t>
+  </si>
+  <si>
+    <t>2016-02-22 03:23:58</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:23:06</t>
-  </si>
-  <si>
-    <t>2016-02-22 03:23:58</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf</t>
+    <t>2016-02-22 03:25:11</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -88,16 +94,19 @@
     <t>Ignored</t>
   </si>
   <si>
+    <t>b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 03:23:20</t>
+  </si>
+  <si>
+    <t>2016-02-22 03:24:20</t>
+  </si>
+  <si>
     <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:23:20</t>
-  </si>
-  <si>
-    <t>2016-02-22 03:24:20</t>
-  </si>
-  <si>
-    <t>b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf</t>
+    <t>2016-02-22 03:25:24</t>
   </si>
 </sst>
 </file>
@@ -240,27 +249,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId3"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -291,31 +300,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -326,22 +335,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -349,54 +358,54 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -427,31 +436,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -462,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -485,54 +494,54 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>b2b6df03-c520-49b2-90a1-848d14002757.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,6 +67,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 03:25:11</t>
+  </si>
+  <si>
+    <t>2016-02-22 03:25:58</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf</t>
   </si>
   <si>
@@ -79,21 +88,21 @@
     <t>2016-02-22 03:23:58</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-22 03:25:11</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 03:25:24</t>
+  </si>
+  <si>
+    <t>2016-02-22 03:26:17</t>
+  </si>
+  <si>
     <t>b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf</t>
   </si>
   <si>
@@ -101,12 +110,6 @@
   </si>
   <si>
     <t>2016-02-22 03:24:20</t>
-  </si>
-  <si>
-    <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-22 03:25:24</t>
   </si>
 </sst>
 </file>
@@ -249,27 +252,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId3"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -300,31 +303,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -335,22 +338,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -358,33 +361,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -398,14 +401,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -436,31 +439,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -486,7 +489,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -509,18 +512,18 @@
         <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -534,14 +537,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -28,10 +28,7 @@
     <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>b2b6df03-c520-49b2-90a1-848d14002757.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +67,7 @@
     <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:25:11</t>
+    <t>2016-02-22 03:26:58</t>
   </si>
   <si>
     <t>2016-02-22 03:25:58</t>
@@ -79,15 +76,6 @@
     <t>Include</t>
   </si>
   <si>
-    <t>b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-22 03:23:06</t>
-  </si>
-  <si>
-    <t>2016-02-22 03:23:58</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -97,19 +85,10 @@
     <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:25:24</t>
+    <t>2016-02-22 03:27:10</t>
   </si>
   <si>
     <t>2016-02-22 03:26:17</t>
-  </si>
-  <si>
-    <t>b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-22 03:23:20</t>
-  </si>
-  <si>
-    <t>2016-02-22 03:24:20</t>
   </si>
 </sst>
 </file>
@@ -214,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -252,28 +231,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -284,7 +251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,31 +270,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -338,22 +305,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -361,42 +328,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -405,11 +346,7 @@
     <hyperlink ref="C2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId4"/>
     <hyperlink ref="F2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -420,7 +357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +376,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -474,22 +411,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -497,42 +434,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -541,11 +452,7 @@
     <hyperlink ref="C2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md" r:id="rId4"/>
     <hyperlink ref="F2" display="9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.75fe3ad83d3b1f387cd7848e25355d8c209a2927.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="b2b6df03-c520-49b2-90a1-848d14002757.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="b2b6df03-c520-49b2-90a1-848d14002757.7a03ac360e2d593e9b47d7a32f97c147aa08688c.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>9a22d94c-a763-4ece-9e4b-6e5c8efa1f55.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +70,7 @@
     <t>2016-02-22 03:26:58</t>
   </si>
   <si>
-    <t>2016-02-22 03:25:58</t>
+    <t>2016-02-22 03:27:40</t>
   </si>
   <si>
     <t>Include</t>
@@ -88,7 +88,7 @@
     <t>2016-02-22 03:27:10</t>
   </si>
   <si>
-    <t>2016-02-22 03:26:17</t>
+    <t>2016-02-22 03:28:00</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>1d74a009-d697-4d28-bd41-10b93477a7b6.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>db5abd61-ff06-4ef3-b1ec-6c5b71137066.md</t>
@@ -73,12 +73,15 @@
     <t>2016-02-22 05:20:28</t>
   </si>
   <si>
+    <t>2016-02-22 05:21:35</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>2016-02-22 05:20:45</t>
+  </si>
+  <si>
+    <t>2016-02-22 05:21:56</t>
   </si>
 </sst>
 </file>
@@ -319,6 +325,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -339,6 +351,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -354,22 +372,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1d74a009-d697-4d28-bd41-10b93477a7b6.md" r:id="rId2"/>
     <hyperlink ref="C2" display="1d74a009-d697-4d28-bd41-10b93477a7b6.289ec510428fbbcdcd220305d0f71e1e65a2f2a6.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="db5abd61-ff06-4ef3-b1ec-6c5b71137066.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="1d74a009-d697-4d28-bd41-10b93477a7b6.289ec510428fbbcdcd220305d0f71e1e65a2f2a6.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="1d74a009-d697-4d28-bd41-10b93477a7b6.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="1d74a009-d697-4d28-bd41-10b93477a7b6.289ec510428fbbcdcd220305d0f71e1e65a2f2a6.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="db5abd61-ff06-4ef3-b1ec-6c5b71137066.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="1d74a009-d697-4d28-bd41-10b93477a7b6.289ec510428fbbcdcd220305d0f71e1e65a2f2a6.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="1d74a009-d697-4d28-bd41-10b93477a7b6.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="1d74a009-d697-4d28-bd41-10b93477a7b6.289ec510428fbbcdcd220305d0f71e1e65a2f2a6.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -434,13 +456,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -454,13 +482,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -474,22 +508,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1d74a009-d697-4d28-bd41-10b93477a7b6.md" r:id="rId2"/>
     <hyperlink ref="C2" display="1d74a009-d697-4d28-bd41-10b93477a7b6.289ec510428fbbcdcd220305d0f71e1e65a2f2a6.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="db5abd61-ff06-4ef3-b1ec-6c5b71137066.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="1d74a009-d697-4d28-bd41-10b93477a7b6.289ec510428fbbcdcd220305d0f71e1e65a2f2a6.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="1d74a009-d697-4d28-bd41-10b93477a7b6.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="1d74a009-d697-4d28-bd41-10b93477a7b6.289ec510428fbbcdcd220305d0f71e1e65a2f2a6.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="db5abd61-ff06-4ef3-b1ec-6c5b71137066.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="1d74a009-d697-4d28-bd41-10b93477a7b6.289ec510428fbbcdcd220305d0f71e1e65a2f2a6.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="1d74a009-d697-4d28-bd41-10b93477a7b6.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="1d74a009-d697-4d28-bd41-10b93477a7b6.289ec510428fbbcdcd220305d0f71e1e65a2f2a6.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>5891a86b-22b9-4c22-855c-1e13666938ae.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>c706a996-a9c2-46a6-9778-b29b60984b99.md</t>
@@ -73,12 +73,15 @@
     <t>2016-02-22 05:24:41</t>
   </si>
   <si>
+    <t>2016-02-22 05:50:04</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>2016-02-22 05:24:54</t>
+  </si>
+  <si>
+    <t>2016-02-22 05:50:26</t>
   </si>
 </sst>
 </file>
@@ -319,6 +325,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -339,6 +351,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -354,22 +372,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="5891a86b-22b9-4c22-855c-1e13666938ae.md" r:id="rId2"/>
     <hyperlink ref="C2" display="5891a86b-22b9-4c22-855c-1e13666938ae.25551df6047c96ebc6d15c2968b18d33cbda9b9c.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="c706a996-a9c2-46a6-9778-b29b60984b99.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="5891a86b-22b9-4c22-855c-1e13666938ae.25551df6047c96ebc6d15c2968b18d33cbda9b9c.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="5891a86b-22b9-4c22-855c-1e13666938ae.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="5891a86b-22b9-4c22-855c-1e13666938ae.25551df6047c96ebc6d15c2968b18d33cbda9b9c.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="c706a996-a9c2-46a6-9778-b29b60984b99.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="5891a86b-22b9-4c22-855c-1e13666938ae.25551df6047c96ebc6d15c2968b18d33cbda9b9c.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="5891a86b-22b9-4c22-855c-1e13666938ae.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="5891a86b-22b9-4c22-855c-1e13666938ae.25551df6047c96ebc6d15c2968b18d33cbda9b9c.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -434,13 +456,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -454,13 +482,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -474,22 +508,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="5891a86b-22b9-4c22-855c-1e13666938ae.md" r:id="rId2"/>
     <hyperlink ref="C2" display="5891a86b-22b9-4c22-855c-1e13666938ae.25551df6047c96ebc6d15c2968b18d33cbda9b9c.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="c706a996-a9c2-46a6-9778-b29b60984b99.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="5891a86b-22b9-4c22-855c-1e13666938ae.25551df6047c96ebc6d15c2968b18d33cbda9b9c.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="5891a86b-22b9-4c22-855c-1e13666938ae.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="5891a86b-22b9-4c22-855c-1e13666938ae.25551df6047c96ebc6d15c2968b18d33cbda9b9c.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="c706a996-a9c2-46a6-9778-b29b60984b99.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="5891a86b-22b9-4c22-855c-1e13666938ae.25551df6047c96ebc6d15c2968b18d33cbda9b9c.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="5891a86b-22b9-4c22-855c-1e13666938ae.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="5891a86b-22b9-4c22-855c-1e13666938ae.25551df6047c96ebc6d15c2968b18d33cbda9b9c.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
